--- a/instagram.xlsx
+++ b/instagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barrio\Desktop\Desarrollo\Proyectos\instagram_scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C09B93-0C56-4490-A97C-CCE4819C60C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1649FA-09E6-42D4-8900-6D87D322D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0644A942-00E5-4874-A21B-3AB26CD65544}"/>
   </bookViews>
@@ -34,17 +34,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+  <si>
+    <t>https://www.instagram.com/la_historia_es_meme/</t>
+  </si>
+  <si>
+    <t>memehistoria_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memeshistoria_/</t>
+  </si>
+  <si>
+    <t>la_historia_es_meme</t>
+  </si>
+  <si>
+    <t>historiaenmeme</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/historiaenmeme/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/historia.en.memes/</t>
+  </si>
+  <si>
+    <t>historia.en.memes</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/historiainsolita/</t>
+  </si>
+  <si>
+    <t>historiainsolita</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_espanaysuhistoria_/</t>
+  </si>
+  <si>
+    <t>_espanaysuhistoria_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memes_con_historia_z/</t>
+  </si>
+  <si>
+    <t>memes_con_historia_z</t>
+  </si>
+  <si>
+    <t>los_memes_de_la_historia</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/los_memes_de_la_historia/</t>
+  </si>
+  <si>
+    <t>_memes_historia</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_memes_historia/</t>
+  </si>
+  <si>
+    <t>historiaymeme</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/historiaymeme/</t>
+  </si>
   <si>
     <t>#historiameme</t>
   </si>
   <si>
+    <t>https://www.instagram.com/adesin.shitposting_2/</t>
+  </si>
+  <si>
+    <t>adesin.shitposting_2</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/izquierdapolitica/</t>
+  </si>
+  <si>
+    <t>izquierdapolitica</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/royaltvice/</t>
+  </si>
+  <si>
+    <t>royaltvice</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/professor.bartho/</t>
+  </si>
+  <si>
+    <t>professor.bartho</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/estudiantedehistoria/</t>
+  </si>
+  <si>
+    <t>estudiantedehistoria</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ecosde.lahistoria/</t>
+  </si>
+  <si>
+    <t>ecosde.lahistoria</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memes_historicos2020/</t>
+  </si>
+  <si>
+    <t>memes_historicos2020</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/historia.presente/</t>
+  </si>
+  <si>
+    <t>historia.presente</t>
+  </si>
+  <si>
     <t>#memeshistoria</t>
   </si>
   <si>
+    <t>https://www.instagram.com/memes_memardium/</t>
+  </si>
+  <si>
+    <t>memes_memardium</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hacer_historia_/</t>
+  </si>
+  <si>
+    <t>hacer_historia_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hchistoriacontemporanea.1987/</t>
+  </si>
+  <si>
+    <t>hchistoriacontemporanea.1987</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mandale.historia/</t>
+  </si>
+  <si>
+    <t>mandale.historia</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lahistoriaylossimpson/</t>
+  </si>
+  <si>
+    <t>lahistoriaylossimpson</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/quepeyeparce/</t>
+  </si>
+  <si>
+    <t>quepeyeparce</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iz_mier_da/</t>
+  </si>
+  <si>
+    <t>iz_mier_da</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/contra.apra/</t>
+  </si>
+  <si>
+    <t>contra.apra</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/himsicoh/</t>
+  </si>
+  <si>
+    <t>himsicoh</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pibeguiso_/</t>
+  </si>
+  <si>
+    <t>pibeguiso_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/geograficahistoria1/</t>
+  </si>
+  <si>
+    <t>geograficahistoria1</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aztlanpodcast/</t>
+  </si>
+  <si>
+    <t>aztlanpodcast</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/historia_en_reel_/</t>
+  </si>
+  <si>
+    <t>historia_en_reel_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/omundodahistoria/</t>
+  </si>
+  <si>
+    <t>omundodahistoria</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pablobordaok_/</t>
+  </si>
+  <si>
+    <t>pablobordaok_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/macehuales2022/</t>
+  </si>
+  <si>
     <t>#historiamemes</t>
   </si>
   <si>
+    <t>https://www.instagram.com/jijistorychannel/</t>
+  </si>
+  <si>
+    <t>jijistorychannel</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/los.heiters/</t>
+  </si>
+  <si>
+    <t>los.heiters</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/caesar_dictator/</t>
+  </si>
+  <si>
+    <t>caesar_dictator</t>
+  </si>
+  <si>
+    <t>macehuales2022</t>
+  </si>
+  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -54,19 +276,31 @@
     <t>Notas</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>_memes_historia</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Historia</t>
   </si>
   <si>
-    <t>https://www.instagram.com/_memes_historia/</t>
+    <t>Divulgación</t>
+  </si>
+  <si>
+    <t>Politico</t>
+  </si>
+  <si>
+    <t>Historia (CENSURAS)</t>
+  </si>
+  <si>
+    <t>Historia (ACABA EN 2022)</t>
+  </si>
+  <si>
+    <t>Politico (NO EXISTE)</t>
+  </si>
+  <si>
+    <t>Historia (NO TIENE POSTS EN 2022)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +745,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,295 +754,762 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E2" s="5">
-        <v>1234</v>
+        <v>1439</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1234</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6935</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3978</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1337</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5">
+        <v>26870</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1036</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>28996</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>36192</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5040</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1383</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4035</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6537</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>18746</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3751</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11776</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10394</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2052</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1081</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>14218</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5">
+        <v>76247</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5">
+        <v>63070</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5">
+        <v>29558</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5">
+        <v>12669</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8142</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5">
+        <v>14208</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1379</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9304</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2397</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2555</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1278</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="5">
+        <v>65609</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="5">
+        <v>12653</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1174</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4570</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
+      <c r="E38" s="10">
+        <v>2605</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{59E26B15-F54F-42C3-93DE-C41623FE34FA}"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{51262181-88E0-4E37-B098-0B2F5342159B}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{040AC127-9439-4183-AAB3-4752F51E43B9}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{27F018E7-3D28-40FE-B851-FBE4C6A9E0B7}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{FDEDA21C-B79B-47D1-8337-AB42FBD9DEE9}"/>
+    <hyperlink ref="G32" r:id="rId5" xr:uid="{371D3CE0-7F0D-42C2-9145-A71E3AF8A60B}"/>
+    <hyperlink ref="G20" r:id="rId6" xr:uid="{BE7EDDAA-B047-4375-8B86-6ADB685063C4}"/>
+    <hyperlink ref="G31" r:id="rId7" xr:uid="{5C83C871-C5DE-4FC9-80DF-56665DEA8816}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{3C4A3D66-4B0B-4F64-ABCA-EF00143190EB}"/>
+    <hyperlink ref="G27" r:id="rId9" xr:uid="{C0DFAF8B-7CDE-4D8D-AE16-ED73B833F65D}"/>
+    <hyperlink ref="G2" r:id="rId10" xr:uid="{76AFD1D1-E58E-42B7-96A0-73EB5D808277}"/>
+    <hyperlink ref="G3" r:id="rId11" xr:uid="{920B2066-F7EB-4AD2-A879-5F5D33ECFFBD}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{4AC26E23-98BC-4DE4-85BD-3B2F6EC3A901}"/>
+    <hyperlink ref="G5" r:id="rId13" xr:uid="{1C30D441-FDD9-453B-B097-2A7A1B8B172F}"/>
+    <hyperlink ref="G6" r:id="rId14" xr:uid="{7932568A-DB15-458A-8187-C0B3FFB3902A}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{2D874FD2-0F54-4F72-9CB7-7BA3FCCD386A}"/>
+    <hyperlink ref="G12" r:id="rId16" xr:uid="{8FC8E686-8CC4-4A98-AF67-3C4432AC815E}"/>
+    <hyperlink ref="G13" r:id="rId17" xr:uid="{5F3D26EC-04AA-4983-B877-85E036226737}"/>
+    <hyperlink ref="G14" r:id="rId18" xr:uid="{2A7E228D-AA5C-4CDF-9A1F-AC56111093DD}"/>
+    <hyperlink ref="G15" r:id="rId19" xr:uid="{F1F91270-96F7-4A07-9CAF-8F45A5C174AB}"/>
+    <hyperlink ref="G16" r:id="rId20" xr:uid="{4FDA234D-065B-44D1-B861-59C10F2E6559}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{6916BA9C-F6E1-4D13-A406-C23F805380CA}"/>
+    <hyperlink ref="G19" r:id="rId22" xr:uid="{47043896-09CF-49BA-9AA4-D4282FD4C352}"/>
+    <hyperlink ref="G21" r:id="rId23" xr:uid="{1968F9EE-57CC-4A9F-97E4-1B17C29E18A4}"/>
+    <hyperlink ref="G22" r:id="rId24" xr:uid="{C42F7627-5267-457D-B98E-058B08C8ED70}"/>
+    <hyperlink ref="G24" r:id="rId25" xr:uid="{576EF7AE-78DE-43E6-AC3F-BAEBCB893C33}"/>
+    <hyperlink ref="G25" r:id="rId26" xr:uid="{62B4E25C-3732-4032-B66E-82979816B8FB}"/>
+    <hyperlink ref="G26" r:id="rId27" xr:uid="{619F5454-1EE9-47AA-A038-F06B5461408E}"/>
+    <hyperlink ref="G28" r:id="rId28" xr:uid="{3452BD23-3CB6-4A4A-B052-E94B96CAC15A}"/>
+    <hyperlink ref="G29" r:id="rId29" xr:uid="{FA57E15E-3678-4F28-938D-F0CD6F12D2CE}"/>
+    <hyperlink ref="G30" r:id="rId30" xr:uid="{CDEFFBB0-39E7-4E8E-A19B-6B3C7BF3C722}"/>
+    <hyperlink ref="G33" r:id="rId31" xr:uid="{52776799-B6DF-4158-AD22-884935881464}"/>
+    <hyperlink ref="G34" r:id="rId32" xr:uid="{0C339248-D1DC-4540-BAC6-CDF58172CC11}"/>
+    <hyperlink ref="G36" r:id="rId33" xr:uid="{99B04890-58EC-4BFE-8D56-E09AF43B8CBE}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{518E916C-A81C-4CAE-8D79-3109B83965F0}"/>
+    <hyperlink ref="G38" r:id="rId35" xr:uid="{25AED578-9962-4E87-9435-69BABFC95AAF}"/>
+    <hyperlink ref="G35" r:id="rId36" xr:uid="{00BDD88E-9C2C-452D-9DBF-08FF25F01410}"/>
+    <hyperlink ref="G7" r:id="rId37" xr:uid="{6D6F03C7-0ECD-4678-9816-9A5F834403CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId38"/>
 </worksheet>
 </file>
--- a/instagram.xlsx
+++ b/instagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barrio\Desktop\Desarrollo\Proyectos\instagram_scrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barrio\Desktop\Desarrollo\Proyectos\instagram_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1649FA-09E6-42D4-8900-6D87D322D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569F1DF-5642-44B9-A462-CDE3765015E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0644A942-00E5-4874-A21B-3AB26CD65544}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>https://www.instagram.com/la_historia_es_meme/</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Historia (NO TIENE POSTS EN 2022)</t>
+  </si>
+  <si>
+    <t>Historia (PUBLICACIÓN OCULTA)</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1AE70-FAE6-44F1-A4DC-634D8084CD80}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1302,7 @@
         <v>9304</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>2</v>
